--- a/artfynd/A 50174-2020.xlsx
+++ b/artfynd/A 50174-2020.xlsx
@@ -3126,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>97604899</v>
+        <v>102941038</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3142,37 +3142,48 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gyljberget–Igeltjärnen, Hls</t>
+          <t>Gyljberget, nord ost, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>551888.2619905178</v>
+        <v>551737.9524457334</v>
       </c>
       <c r="R23" t="n">
-        <v>6765241.166833818</v>
+        <v>6765756.293540224</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3196,22 +3207,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3226,26 +3237,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Jenny Andersson</t>
+          <t>Enar Gesslin</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jenny Andersson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Länsstyrelsen Gävleborg funktionsindelning</t>
-        </is>
-      </c>
+          <t>Enar Gesslin</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102941038</v>
+        <v>97604899</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3258,48 +3265,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Gyljberget, nord ost, Hls</t>
+          <t>Gyljberget–Igeltjärnen, Hls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>551737.9524457334</v>
+        <v>551888.2619905178</v>
       </c>
       <c r="R24" t="n">
-        <v>6765756.293540224</v>
+        <v>6765241.166833818</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3323,22 +3319,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3353,15 +3349,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Enar Gesslin</t>
+          <t>Jenny Andersson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Enar Gesslin</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Jenny Andersson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen Gävleborg funktionsindelning</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 50174-2020.xlsx
+++ b/artfynd/A 50174-2020.xlsx
@@ -3126,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102941038</v>
+        <v>97604899</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3142,48 +3142,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gyljberget, nord ost, Hls</t>
+          <t>Gyljberget–Igeltjärnen, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>551737.9524457334</v>
+        <v>551888.2619905178</v>
       </c>
       <c r="R23" t="n">
-        <v>6765756.293540224</v>
+        <v>6765241.166833818</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3207,22 +3196,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3237,22 +3226,26 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Enar Gesslin</t>
+          <t>Jenny Andersson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Enar Gesslin</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Jenny Andersson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen Gävleborg funktionsindelning</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>97604899</v>
+        <v>102941038</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3265,37 +3258,48 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Gyljberget–Igeltjärnen, Hls</t>
+          <t>Gyljberget, nord ost, Hls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>551888.2619905178</v>
+        <v>551737.9524457334</v>
       </c>
       <c r="R24" t="n">
-        <v>6765241.166833818</v>
+        <v>6765756.293540224</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3319,22 +3323,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3349,19 +3353,15 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Jenny Andersson</t>
+          <t>Enar Gesslin</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Jenny Andersson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Länsstyrelsen Gävleborg funktionsindelning</t>
-        </is>
-      </c>
+          <t>Enar Gesslin</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
